--- a/TourPlanner_Checklist.xlsx
+++ b/TourPlanner_Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallisch\Nextcloud\Lehre\S4-SWEN2\Semester Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mainf\Desktop\FH Technikum Offline\TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783D699-E9F1-48E7-8BB8-5555125E0EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF57C3-3F8B-4EA8-9CF9-7B17D6538ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="19200" windowHeight="9970" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Checklist Tourplanner Exam 2</t>
   </si>
@@ -234,13 +234,16 @@
   </si>
   <si>
     <t>Sum Points</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,7 +371,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -667,42 +670,42 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.45">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="21">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.6">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -710,116 +713,155 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="21">
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="15.6">
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -830,338 +872,443 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="15.6"/>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="15.6">
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="15.6">
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.6">
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="15.6">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.6">
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.6">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="15.6">
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C52" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="15.6">
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="15.6">
+      <c r="D54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="15.6">
+    <row r="57" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="15.6">
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C59" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="15.6">
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C60" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="15.6">
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C62" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C63" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="15.6">
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C67" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C69" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C70" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C71" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C72" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C74" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" ht="15.6">
+      <c r="D75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B77"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="79" spans="1:3" s="2" customFormat="1" ht="21">
+    <row r="79" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A79" s="2" t="s">
         <v>65</v>
       </c>
@@ -1324,6 +1471,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1332,20 +1485,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536D9EC2-1905-4286-971A-18C563B29D4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536D9EC2-1905-4286-971A-18C563B29D4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0dd4ebbd-e603-4963-8782-ab9329a1459d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981279ED-D6DF-4F74-A002-827C305FADC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEAD3D1-BC7F-4367-835C-54F9567E9A4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEAD3D1-BC7F-4367-835C-54F9567E9A4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981279ED-D6DF-4F74-A002-827C305FADC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TourPlanner_Checklist.xlsx
+++ b/TourPlanner_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mainf\Desktop\FH Technikum Offline\TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AF57C3-3F8B-4EA8-9CF9-7B17D6538ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C19AC-E328-434E-94F2-F5DBE3506DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="19200" windowHeight="9970" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9970" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Checklist Tourplanner Exam 2</t>
   </si>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -945,8 +945,8 @@
       <c r="C34" s="6">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>66</v>
+      <c r="D34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -956,8 +956,8 @@
       <c r="C35" s="6">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
-        <v>66</v>
+      <c r="D35">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1333,6 +1333,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010075D40D9C3EDB8943872FF524C6B3FD0A" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c8b69379abfde7286eda3659b10c0c3d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0dd4ebbd-e603-4963-8782-ab9329a1459d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="455ee242f80cd7a09b1a6ea5707d2ed2" ns2:_="">
     <xsd:import namespace="0dd4ebbd-e603-4963-8782-ab9329a1459d"/>
@@ -1470,22 +1485,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981279ED-D6DF-4F74-A002-827C305FADC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEAD3D1-BC7F-4367-835C-54F9567E9A4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536D9EC2-1905-4286-971A-18C563B29D4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1501,21 +1518,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEAD3D1-BC7F-4367-835C-54F9567E9A4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981279ED-D6DF-4F74-A002-827C305FADC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TourPlanner_Checklist.xlsx
+++ b/TourPlanner_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mainf\Desktop\FH Technikum Offline\TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C19AC-E328-434E-94F2-F5DBE3506DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBE7F5F-8AF3-4819-B90B-C5FEC60DD188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9970" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Checklist Tourplanner Exam 2</t>
   </si>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -967,8 +967,8 @@
       <c r="C36" s="6">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>66</v>
+      <c r="D36">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">

--- a/TourPlanner_Checklist.xlsx
+++ b/TourPlanner_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mainf\Desktop\FH Technikum Offline\TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBE7F5F-8AF3-4819-B90B-C5FEC60DD188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F984F51-AB4D-4381-A63A-257A7AC554DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9970" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TourPlanner_Checklist.xlsx
+++ b/TourPlanner_Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mainf\Desktop\FH Technikum Offline\TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F984F51-AB4D-4381-A63A-257A7AC554DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB7E0B1-6F43-47EE-9802-868D082E92BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9970" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="38280" yWindow="2640" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Checklist Tourplanner Exam 2</t>
   </si>
@@ -670,7 +670,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,8 +852,8 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>66</v>
+      <c r="D21">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.5">
@@ -1085,8 +1085,8 @@
       <c r="C51" s="6">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
-        <v>66</v>
+      <c r="D51">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1096,8 +1096,8 @@
       <c r="C52" s="6">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
-        <v>66</v>
+      <c r="D52">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1107,8 +1107,8 @@
       <c r="C54" s="6">
         <v>2</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>66</v>
+      <c r="D54" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1191,8 +1191,8 @@
       <c r="C63" s="6">
         <v>1</v>
       </c>
-      <c r="D63" t="s">
-        <v>66</v>
+      <c r="D63">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1333,21 +1333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010075D40D9C3EDB8943872FF524C6B3FD0A" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c8b69379abfde7286eda3659b10c0c3d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0dd4ebbd-e603-4963-8782-ab9329a1459d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="455ee242f80cd7a09b1a6ea5707d2ed2" ns2:_="">
     <xsd:import namespace="0dd4ebbd-e603-4963-8782-ab9329a1459d"/>
@@ -1485,24 +1470,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981279ED-D6DF-4F74-A002-827C305FADC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEAD3D1-BC7F-4367-835C-54F9567E9A4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536D9EC2-1905-4286-971A-18C563B29D4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1518,4 +1501,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEAD3D1-BC7F-4367-835C-54F9567E9A4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981279ED-D6DF-4F74-A002-827C305FADC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TourPlanner_Checklist.xlsx
+++ b/TourPlanner_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mainf\Desktop\FH Technikum Offline\TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB7E0B1-6F43-47EE-9802-868D082E92BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A587851-9D05-487E-93FF-022C22E605D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2640" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Checklist Tourplanner Exam 2</t>
   </si>
@@ -670,7 +670,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1209,8 +1209,8 @@
       <c r="C67" s="6">
         <v>3</v>
       </c>
-      <c r="D67" t="s">
-        <v>66</v>
+      <c r="D67">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1242,8 +1242,8 @@
       <c r="C70" s="6">
         <v>1</v>
       </c>
-      <c r="D70" t="s">
-        <v>66</v>
+      <c r="D70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -1253,8 +1253,8 @@
       <c r="C71" s="6">
         <v>1</v>
       </c>
-      <c r="D71" t="s">
-        <v>66</v>
+      <c r="D71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -1264,8 +1264,8 @@
       <c r="C72" s="6">
         <v>1</v>
       </c>
-      <c r="D72" t="s">
-        <v>66</v>
+      <c r="D72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1275,8 +1275,8 @@
       <c r="C73" s="6">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
-        <v>66</v>
+      <c r="D73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -1286,8 +1286,8 @@
       <c r="C74" s="6">
         <v>0.5</v>
       </c>
-      <c r="D74" t="s">
-        <v>66</v>
+      <c r="D74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -1297,8 +1297,8 @@
       <c r="C75" s="6">
         <v>0.5</v>
       </c>
-      <c r="D75" t="s">
-        <v>66</v>
+      <c r="D75">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1328,11 +1328,26 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010075D40D9C3EDB8943872FF524C6B3FD0A" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c8b69379abfde7286eda3659b10c0c3d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0dd4ebbd-e603-4963-8782-ab9329a1459d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="455ee242f80cd7a09b1a6ea5707d2ed2" ns2:_="">
     <xsd:import namespace="0dd4ebbd-e603-4963-8782-ab9329a1459d"/>
@@ -1470,22 +1485,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981279ED-D6DF-4F74-A002-827C305FADC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEAD3D1-BC7F-4367-835C-54F9567E9A4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536D9EC2-1905-4286-971A-18C563B29D4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1501,21 +1518,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEAD3D1-BC7F-4367-835C-54F9567E9A4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981279ED-D6DF-4F74-A002-827C305FADC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>